--- a/Data_clean/MCAS/Estados_US/Edos_USA_2013/WYOMING_2013.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2013/WYOMING_2013.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Jesus Maria</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Pabellon De Arteaga</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Rincon De Romos</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Tepezala</t>
@@ -463,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Cacahoatan</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Salto De Agua</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Tuxtla Gutierrez</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Ascension</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Bachiniva</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Bocoyna</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Buenaventura</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Casas Grandes</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Cusihuiriachi</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Gomez Farias</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Gran Morelos</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Guachochi</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Guadalupe Y Calvo</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Juarez</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Matachi</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Meoqui</t>
@@ -990,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -1003,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Nonoava</t>
@@ -1016,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -1029,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Riva Palacio</t>
@@ -1042,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -1055,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Santa Barbara</t>
@@ -1068,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Santa Isabel</t>
@@ -1081,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -1094,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Temosachi</t>
@@ -1107,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1138,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -1151,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Muzquiz</t>
@@ -1164,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -1177,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Torreon</t>
@@ -1190,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Viesca</t>
@@ -1203,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1234,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Coquimatlan</t>
@@ -1247,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Tecoman</t>
@@ -1260,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1291,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1304,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -1317,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Coyoacan</t>
@@ -1330,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -1343,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1356,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1369,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1382,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1395,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1408,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -1421,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Tlahuac</t>
@@ -1434,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1447,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1478,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1491,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Gomez Palacio</t>
@@ -1504,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -1517,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Mapimi</t>
@@ -1530,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Nazas</t>
@@ -1543,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1556,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Otaez</t>
@@ -1569,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Poanas</t>
@@ -1582,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Rodeo</t>
@@ -1595,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>San Bernardo</t>
@@ -1608,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>San Pedro Del Gallo</t>
@@ -1621,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Santiago Papasquiaro</t>
@@ -1634,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Suchil</t>
@@ -1647,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1660,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1691,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Atlacomulco</t>
@@ -1704,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Coacalco De Berriozabal</t>
@@ -1717,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -1730,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1743,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Jocotitlan</t>
@@ -1756,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Naucalpan De Juarez</t>
@@ -1769,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -1782,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Nopaltepec</t>
@@ -1795,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -1808,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -1821,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -1834,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -1847,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1860,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1873,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -1886,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1917,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Acambaro</t>
@@ -1930,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -1943,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Coroneo</t>
@@ -1956,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Cueramaro</t>
@@ -1969,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -1982,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1995,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -2008,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -2021,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Penjamo</t>
@@ -2034,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -2047,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -2060,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -2073,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Santiago Maravatio</t>
@@ -2086,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Silao</t>
@@ -2099,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Tarandacuao</t>
@@ -2112,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -2125,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -2138,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2169,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -2182,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Azoyu</t>
@@ -2195,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Chilapa De Alvarez</t>
@@ -2208,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -2221,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -2234,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Coyuca De Catalan</t>
@@ -2247,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzon</t>
@@ -2260,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -2273,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -2286,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -2299,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Petatlan</t>
@@ -2312,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -2325,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -2338,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -2351,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2382,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juarez</t>
@@ -2395,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -2408,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -2421,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Tepeji Del Rio De Ocampo</t>
@@ -2434,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="C155">
         <v>9</v>
       </c>
@@ -2460,6 +3165,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Autlan De Navarro</t>
@@ -2473,6 +3183,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Ayotlan</t>
@@ -2486,6 +3201,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -2499,6 +3219,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -2512,6 +3237,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>El Grullo</t>
@@ -2525,6 +3255,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Encarnacion De Diaz</t>
@@ -2538,6 +3273,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -2551,6 +3291,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Ixtlahuacan De Los Membrillos</t>
@@ -2564,6 +3309,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -2577,6 +3327,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -2590,6 +3345,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Mexticacan</t>
@@ -2603,6 +3363,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -2616,6 +3381,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -2629,6 +3399,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>San Diego De Alejandria</t>
@@ -2642,6 +3417,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -2655,6 +3435,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>San Julian</t>
@@ -2668,6 +3453,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -2681,6 +3471,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>San Sebastian Del Oeste</t>
@@ -2694,6 +3489,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -2707,6 +3507,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -2720,6 +3525,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Tapalpa</t>
@@ -2733,6 +3543,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -2746,6 +3561,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Tepatitlan De Morelos</t>
@@ -2759,6 +3579,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -2772,6 +3597,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Tizapan El Alto</t>
@@ -2785,6 +3615,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Tlaquepaque</t>
@@ -2798,6 +3633,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Tomatlan</t>
@@ -2811,6 +3651,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Tonila</t>
@@ -2824,6 +3669,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Union De Tula</t>
@@ -2837,6 +3687,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Villa Purificacion</t>
@@ -2850,6 +3705,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -2863,6 +3723,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Zapotlan El Grande</t>
@@ -2876,6 +3741,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2907,6 +3777,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Chavinda</t>
@@ -2920,6 +3795,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Chilchota</t>
@@ -2933,6 +3813,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -2946,6 +3831,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Cuitzeo</t>
@@ -2959,6 +3849,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -2972,6 +3867,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -2985,6 +3885,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Jose Sixto Verduzco</t>
@@ -2998,6 +3903,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -3011,6 +3921,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -3024,6 +3939,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Nocupetaro</t>
@@ -3037,6 +3957,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Numaran</t>
@@ -3050,6 +3975,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Pajacuaran</t>
@@ -3063,6 +3993,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Purepero</t>
@@ -3076,6 +4011,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Puruandiro</t>
@@ -3089,6 +4029,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Querendaro</t>
@@ -3102,6 +4047,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Salvador Escalante</t>
@@ -3115,6 +4065,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Santa Ana Maya</t>
@@ -3128,6 +4083,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -3141,6 +4101,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Tangancicuaro</t>
@@ -3154,6 +4119,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolas Romero</t>
@@ -3167,6 +4137,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -3180,6 +4155,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -3193,6 +4173,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -3206,6 +4191,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Zinapecuaro</t>
@@ -3219,6 +4209,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3250,6 +4245,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -3263,6 +4263,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -3276,6 +4281,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3307,6 +4317,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Compostela</t>
@@ -3320,6 +4335,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Del Nayar</t>
@@ -3333,6 +4353,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Huajicori</t>
@@ -3346,6 +4371,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -3359,6 +4389,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Santa Maria Del Oro</t>
@@ -3372,6 +4407,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -3385,6 +4425,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -3398,6 +4443,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -3411,6 +4461,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3442,6 +4497,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3473,6 +4533,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Ocotlan De Morelos</t>
@@ -3486,6 +4551,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -3499,6 +4569,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -3512,6 +4587,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>San Pedro Mixtepec - Distr. 22 -</t>
@@ -3525,6 +4605,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -3538,6 +4623,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Santiago Yosondua</t>
@@ -3551,6 +4641,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -3564,6 +4659,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Zimatlan De Alvarez</t>
@@ -3577,6 +4677,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3608,6 +4713,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Esperanza</t>
@@ -3621,6 +4731,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -3634,6 +4749,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Jolalpan</t>
@@ -3647,6 +4767,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Juan N. Mendez</t>
@@ -3660,6 +4785,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -3673,6 +4803,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Tecomatlan</t>
@@ -3686,6 +4821,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Tepexi De Rodriguez</t>
@@ -3699,6 +4839,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Tlaola</t>
@@ -3712,6 +4857,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Tlapacoya</t>
@@ -3725,6 +4875,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -3738,6 +4893,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -3751,6 +4911,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3782,6 +4947,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Queretaro</t>
@@ -3795,6 +4965,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Tequisquiapan</t>
@@ -3808,6 +4983,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3839,6 +5019,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Charcas</t>
@@ -3852,6 +5037,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Ciudad Fernandez</t>
@@ -3865,6 +5055,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -3878,6 +5073,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Mexquitic De Carmona</t>
@@ -3891,6 +5091,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -3904,6 +5109,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>San Luis Potosi</t>
@@ -3917,6 +5127,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Santa Maria Del Rio</t>
@@ -3930,6 +5145,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -3943,6 +5163,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Tamuin</t>
@@ -3956,6 +5181,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -3969,6 +5199,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4000,6 +5235,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Badiraguato</t>
@@ -4013,6 +5253,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Culiacan</t>
@@ -4026,6 +5271,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Escuinapa</t>
@@ -4039,6 +5289,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -4052,6 +5307,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Mazatlan</t>
@@ -4065,6 +5325,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Mocorito</t>
@@ -4078,6 +5343,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Navolato</t>
@@ -4091,6 +5361,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Salvador Alvarado</t>
@@ -4104,6 +5379,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>San Ignacio</t>
@@ -4117,6 +5397,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4148,6 +5433,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Bacerac</t>
@@ -4161,6 +5451,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Bacum</t>
@@ -4174,6 +5469,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Bavispe</t>
@@ -4187,6 +5487,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -4200,6 +5505,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Empalme</t>
@@ -4213,6 +5523,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -4226,6 +5541,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -4239,6 +5559,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Sahuaripa</t>
@@ -4252,6 +5577,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4283,6 +5613,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4314,6 +5649,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Atlangatepec</t>
@@ -4327,6 +5667,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -4340,6 +5685,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -4353,6 +5703,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Contla De Juan Cuamatzi</t>
@@ -4366,6 +5721,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Españita</t>
@@ -4379,6 +5739,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -4392,6 +5757,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Lazaro Cardenas</t>
@@ -4405,6 +5775,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Muñoz De Domingo Arenas</t>
@@ -4418,6 +5793,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Nativitas</t>
@@ -4431,6 +5811,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -4444,6 +5829,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>San Jose Teacalco</t>
@@ -4457,6 +5847,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>San Lucas Tecopilco</t>
@@ -4470,6 +5865,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Santa Isabel Xiloxoxtla</t>
@@ -4483,6 +5883,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Tepetitla De Lardizabal</t>
@@ -4496,6 +5901,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -4509,6 +5919,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -4522,6 +5937,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Tzompantepec</t>
@@ -4535,6 +5955,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -4548,6 +5973,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -4561,6 +5991,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4592,6 +6027,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Coatepec</t>
@@ -4605,6 +6045,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -4618,6 +6063,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Coyutla</t>
@@ -4631,6 +6081,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -4644,6 +6099,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Minatitlan</t>
@@ -4657,6 +6117,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Panuco</t>
@@ -4670,6 +6135,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Perote</t>
@@ -4683,6 +6153,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Tempoal</t>
@@ -4696,6 +6171,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Tihuatlan</t>
@@ -4709,6 +6189,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Tres Valles</t>
@@ -4722,6 +6207,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -4735,6 +6225,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4766,6 +6261,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Yucatan</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4797,6 +6297,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Concepcion Del Oro</t>
@@ -4810,6 +6315,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -4823,6 +6333,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Genaro Codina</t>
@@ -4836,6 +6351,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -4849,6 +6369,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Juan Aldama</t>
@@ -4862,6 +6387,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Juchipila</t>
@@ -4875,6 +6405,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Mazapil</t>
@@ -4888,6 +6423,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -4901,6 +6441,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -4914,6 +6459,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -4927,6 +6477,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Tlaltenango De Sanchez Roman</t>
@@ -4940,6 +6495,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Valparaiso</t>
@@ -4953,6 +6513,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -4966,6 +6531,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Villa Garcia</t>
@@ -4979,6 +6549,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -4992,6 +6567,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -5005,6 +6585,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Total</t>
